--- a/Electricidad/salv/Salvador.xlsx
+++ b/Electricidad/salv/Salvador.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jorge Guerra\Desktop\Git-Hub\ProyectoReg\Electricidad\salv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87DEEC9E-2D41-4506-A1DC-0109B1B11224}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FFA9979-632D-48A7-9452-CFE640210D17}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{2D3B4FA9-1A90-4097-ACE7-7306BE75949C}"/>
   </bookViews>
